--- a/forwardprimer-v3_12.xlsx
+++ b/forwardprimer-v3_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_12" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F1057-GAACTGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGGACATCGTCGGCAGCGTC</t>
+    <t>F1057-GAGTTGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F1058-TAGTTCGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTCGTACTCGTCGGCAGCGTC</t>
+    <t>F1058-CCAGTACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F1059-CGATCACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCACAAGTCGTCGGCAGCGTC</t>
+    <t>F1059-GACACATGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACACATGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F1060-CAAGAAGCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGCAGTCGTCGGCAGCGTC</t>
+    <t>F1060-GTCGTAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTAGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F1061-ATCCAGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCAGAAGGTCGTCGGCAGCGTC</t>
+    <t>F1061-CAACTCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F1062-TTCCACCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACCTACTCGTCGGCAGCGTC</t>
+    <t>F1062-AGACTTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTCCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F1063-ACTCGAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGAGTTGTCGTCGGCAGCGTC</t>
+    <t>F1063-ATCCACCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCACCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F1064-ACCAGTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGTAGTCTCGTCGGCAGCGTC</t>
+    <t>F1064-TAGTCTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F1065-ACAGCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTCTCTTCGTCGGCAGCGTC</t>
+    <t>F1065-TCCTCTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F1066-AAGCTACTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTACTCGTCGTCGGCAGCGTC</t>
+    <t>F1066-ATGCTCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F1067-GAGATGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGAACCTCGTCGGCAGCGTC</t>
+    <t>F1067-TGCTAGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F1068-TAGGATGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGATGTACTCGTCGGCAGCGTC</t>
+    <t>F1068-TACCTACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F1069-TGTAGGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGGAACATCGTCGGCAGCGTC</t>
+    <t>F1069-AGAAGCAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCAGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F1070-GCTACTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTCTTCTCGTCGGCAGCGTC</t>
+    <t>F1070-AAGCTTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTTGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F1071-CTACGTACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTACAGTCGTCGGCAGCGTC</t>
+    <t>F1071-GATCAACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F1072-CATGCTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTCGAATCGTCGGCAGCGTC</t>
+    <t>F1072-TGAAGGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGGTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F1073-CTTCAAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAAGTTCTCGTCGGCAGCGTC</t>
+    <t>F1073-AGGACAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F1074-GCTCAACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCAACTGATCGTCGGCAGCGTC</t>
+    <t>F1074-ACGAAGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F1075-TGAACAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAGTGTTCGTCGGCAGCGTC</t>
+    <t>F1075-GCAAGACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F1076-TCTGTTCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTTCGTTTCGTCGGCAGCGTC</t>
+    <t>F1076-ACCATGTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATGTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F1077-GGAAGATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGATCGTTCGTCGGCAGCGTC</t>
+    <t>F1077-TACTGTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTGTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F1078-AGTAGTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTCACTTCGTCGGCAGCGTC</t>
+    <t>F1078-TTCGAGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F1079-TGTAGAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGAGTGCTCGTCGGCAGCGTC</t>
+    <t>F1079-TACATGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATGCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F1080-ACTCACTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACTAGCTCGTCGGCAGCGTC</t>
+    <t>F1080-CTACACAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACACAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F1081-ACGTGTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTGTCAACTCGTCGGCAGCGTC</t>
+    <t>F1081-GAGAACGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F1082-AACGAGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAGAGTATCGTCGGCAGCGTC</t>
+    <t>F1082-ACTACACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F1083-GTCAGTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGTGTCATCGTCGGCAGCGTC</t>
+    <t>F1083-ACTGATCGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGATCGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F1084-GAGGTTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTTCATGTCGTCGGCAGCGTC</t>
+    <t>F1084-GTACTCCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTCCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F1085-CTACCACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCACTCATCGTCGGCAGCGTC</t>
+    <t>F1085-GTCTCAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F1086-GTGACAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGACAGAGATCGTCGGCAGCGTC</t>
+    <t>F1086-TCACCTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F1087-ATCCACACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCACACTGTCGTCGGCAGCGTC</t>
+    <t>F1087-GTTGCAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F1088-CATGAACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGAACACGTCGTCGGCAGCGTC</t>
+    <t>F1088-CAACATCCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACATCCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F1089-TAGTACCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTACCTCTTCGTCGGCAGCGTC</t>
+    <t>F1089-CTACAGATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGATGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F1090-CGACTCAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACTCAGTTTCGTCGGCAGCGTC</t>
+    <t>F1090-GTGCTACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F1091-ATCAGTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGTGGTTTCGTCGGCAGCGTC</t>
+    <t>F1091-TTGTAGCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTAGCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F1092-GATGATGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGATGTCGTCGTCGGCAGCGTC</t>
+    <t>F1092-TTCGACAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F1093-TGCATCGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCATCGACATCGTCGGCAGCGTC</t>
+    <t>F1093-CAGCAAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCAAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F1094-TAGCAGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGCTCATCGTCGGCAGCGTC</t>
+    <t>F1094-CTGTGTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGTCGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F1095-AACCAAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGGTTTCGTCGGCAGCGTC</t>
+    <t>F1095-GACGACTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGACTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F1096-GTCCACTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCACTAGATCGTCGGCAGCGTC</t>
+    <t>F1096-CCTTCAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCAAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F1097-TGTCTCTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCTGCATCGTCGGCAGCGTC</t>
+    <t>F1097-AAGGTAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTAGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F1098-GTTCCATCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCATCAGTCGTCGGCAGCGTC</t>
+    <t>F1098-TGACAGTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F1099-TCCTTCGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCGTGTTCGTCGGCAGCGTC</t>
+    <t>F1099-ATGGTGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F1100-CCATCCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCCAGTATCGTCGGCAGCGTC</t>
+    <t>F1100-GTACGAACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F1101-AACAGTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTTGTGTCGTCGGCAGCGTC</t>
+    <t>F1101-CATCACGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCACGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F1102-TTGTACCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTACCACGTCGTCGGCAGCGTC</t>
+    <t>F1102-ATCCTTCGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTCGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F1103-AGTGTGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTGGTTCTCGTCGGCAGCGTC</t>
+    <t>F1103-CTGTAGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F1104-AACAACAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACAGGATCGTCGGCAGCGTC</t>
+    <t>F1104-CTCAACAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F1105-ACGACACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGACACTGTTCGTCGGCAGCGTC</t>
+    <t>F1105-CTTCAACACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAACACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F1106-CCAGTGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTGTCTATCGTCGGCAGCGTC</t>
+    <t>F1106-CAGACACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGACACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F1107-CATCGTACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTACTTTCGTCGGCAGCGTC</t>
+    <t>F1107-ATGCAAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAAGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F1108-AAGAAGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGAGTGTCGTCGGCAGCGTC</t>
+    <t>F1108-CTGTGAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F1109-TCCTCTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTACGTTCGTCGGCAGCGTC</t>
+    <t>F1109-ACATCACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCACTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F1110-CAGACCTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGACCTTGATCGTCGGCAGCGTC</t>
+    <t>F1110-TACGACGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGACGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F1111-ACACAGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGACCTTCGTCGGCAGCGTC</t>
+    <t>F1111-AACAGACTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGACTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F1112-GAAGCTCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTCTGTTCGTCGGCAGCGTC</t>
+    <t>F1112-CCACATCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCACATCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F1113-GGATGTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTGAAGTCGTCGGCAGCGTC</t>
+    <t>F1113-AAGTCACATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F1114-TGCAGATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGATCGATCGTCGGCAGCGTC</t>
+    <t>F1114-GCAAGATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGATCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F1115-GCATCTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTTGTCTCGTCGGCAGCGTC</t>
+    <t>F1115-TGTCGAACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGAACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F1116-CTTGACTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGACTCGTTCGTCGGCAGCGTC</t>
+    <t>F1116-TCTACAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACAGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F1117-GTTGACACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACACTCTCGTCGGCAGCGTC</t>
+    <t>F1117-TCTTCAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F1118-CTCTCTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTCTACACTCGTCGGCAGCGTC</t>
+    <t>F1118-GTCCTTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCCTTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F1119-GTGTGTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTCACATCGTCGGCAGCGTC</t>
+    <t>F1119-CCTAGCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGCAGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F1120-TCCAACGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACGTTGTCGTCGGCAGCGTC</t>
+    <t>F1120-TTGCAGCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAGCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F1121-CACATCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACATCTCTTTCGTCGGCAGCGTC</t>
+    <t>F1121-AAGAAGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F1122-TTGCTCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCAAGGTCGTCGGCAGCGTC</t>
+    <t>F1122-CATGCAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGCAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F1123-AACGTCACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCACGATCGTCGGCAGCGTC</t>
+    <t>F1123-CAGAGTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGTTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F1124-TTGTCCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCAACATCGTCGGCAGCGTC</t>
+    <t>F1124-AGAAGAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F1125-TCAAGAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGAGTCCTCGTCGGCAGCGTC</t>
+    <t>F1125-ACTTCCAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCCAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F1126-GCATCACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCACGTTTCGTCGGCAGCGTC</t>
+    <t>F1126-GGACTACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F1127-GAACACTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTGAATCGTCGGCAGCGTC</t>
+    <t>F1127-TGACTCCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTCCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F1128-GATCCATGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCATGACTCGTCGGCAGCGTC</t>
+    <t>F1128-GAGGTACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F1129-TACCTCGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCGAGTTCGTCGGCAGCGTC</t>
+    <t>F1129-CAAGTAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTAGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F1130-TCTCCATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCATGTGTCGTCGGCAGCGTC</t>
+    <t>F1130-CTTCTCTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTCTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F1131-TAGCTTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCTCTTCGTCGGCAGCGTC</t>
+    <t>F1131-TAGACCAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F1132-CACATCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACATCATCATCGTCGGCAGCGTC</t>
+    <t>F1132-TACAAGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F1133-AGTGGTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGTGAAGTCGTCGGCAGCGTC</t>
+    <t>F1133-CTTCACACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCACACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F1134-TGTCTCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCATGGTCGTCGGCAGCGTC</t>
+    <t>F1134-TTCCACTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F1135-TTCGAAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAAGGTATCGTCGGCAGCGTC</t>
+    <t>F1135-TACTTGCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTTGCACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F1136-CAACTACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTACACGTCGTCGGCAGCGTC</t>
+    <t>F1136-TCTCATGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCATGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F1137-TAGCAGGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGGTGTTCGTCGGCAGCGTC</t>
+    <t>F1137-ACGATGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F1138-TCCTCTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCTGTTCTCGTCGGCAGCGTC</t>
+    <t>F1138-TCAGAACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F1139-AGCTGAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGAGTTCTCGTCGGCAGCGTC</t>
+    <t>F1139-TGGTCCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCCTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F1140-AGAGACCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACCTAGTCGTCGGCAGCGTC</t>
+    <t>F1140-AAGTCTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F1141-ATGGTTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCACATCGTCGGCAGCGTC</t>
+    <t>F1141-TGAGACGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGACGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F1142-CTCTAGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTAGAAGTTCGTCGGCAGCGTC</t>
+    <t>F1142-TAGACCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F1143-GTGTACAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACAGGATCGTCGGCAGCGTC</t>
+    <t>F1143-ACGTAGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F1144-GTTCACAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCACAGTGTCGTCGGCAGCGTC</t>
+    <t>F1144-TCTCTCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F1145-AACGACATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGACATGCTCGTCGGCAGCGTC</t>
+    <t>F1145-AACACTGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F1146-GAGATCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGATCATCGTCGTCGGCAGCGTC</t>
+    <t>F1146-AACCAGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F1147-GGTTCTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCTCAAGTCGTCGGCAGCGTC</t>
+    <t>F1147-GGATGTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTCGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F1148-ACTGCACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCACCAATCGTCGGCAGCGTC</t>
+    <t>F1148-AACCTTGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F1149-AGTGAGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGACACTCGTCGGCAGCGTC</t>
+    <t>F1149-AAGGATGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGATGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F1150-TACAACTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAACTTCGTCGTCGGCAGCGTC</t>
+    <t>F1150-GTAGCTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F1151-GCTCTTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTTGAAGTCGTCGGCAGCGTC</t>
+    <t>F1151-ACAGTTCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTTCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F1152-GATGGTTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTTGTGTCGTCGGCAGCGTC</t>
+    <t>F1152-CATGTACGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTACGTCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
